--- a/dicionario_variaveis_indicadores.xlsx
+++ b/dicionario_variaveis_indicadores.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dicionario_variaveis" sheetId="1" state="visible" r:id="rId2"/>
@@ -53,25 +53,7 @@
     <t xml:space="preserve">2017-2022</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[0, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">+∞)</t>
-    </r>
+    <t xml:space="preserve">[0, +∞)</t>
   </si>
   <si>
     <t xml:space="preserve">unidades</t>
@@ -152,7 +134,7 @@
     <t xml:space="preserve">TX_mortalidade_60_mais_17_19</t>
   </si>
   <si>
-    <t xml:space="preserve">Taxa de mortalidade em residentes com 60 anos ou mais, triênio 2017–2019 (óbitos 60+ / população 60+ média do triênio)</t>
+    <t xml:space="preserve">Taxa de mortalidade em residentes com 60 anos ou mais, triênio 2017–2019 (óbitos 60+ / população 60+ média do triênio) por 10000 habitantes</t>
   </si>
   <si>
     <t xml:space="preserve">Dbl</t>
@@ -173,7 +155,7 @@
     <t xml:space="preserve">TX_mortalidade_60_mais_20_22</t>
   </si>
   <si>
-    <t xml:space="preserve">Taxa de mortalidade em residentes com 60 anos ou mais, triênio 2020–2022 (óbitos 60+ / população 60+ média do triênio)</t>
+    <t xml:space="preserve">Taxa de mortalidade em residentes com 60 anos ou mais, triênio 2020–2022 (óbitos 60+ / população 60+ média do triênio) por 10000 habitantes</t>
   </si>
   <si>
     <t xml:space="preserve">2020-2022</t>
@@ -194,7 +176,7 @@
     <t xml:space="preserve">TX_obitos_fetais_17_19</t>
   </si>
   <si>
-    <t xml:space="preserve">Taxa de óbitos fetais, triênio 2017–2019 (óbitos fetais / nascimentos totais do triênio)</t>
+    <t xml:space="preserve">Taxa de óbitos fetais, triênio 2017–2019 (óbitos fetais / nascimentos totais do triênio) por 10000 nascimentos</t>
   </si>
   <si>
     <t xml:space="preserve">SIM</t>
@@ -203,19 +185,19 @@
     <t xml:space="preserve">TX_obitos_fetais_20_22</t>
   </si>
   <si>
-    <t xml:space="preserve">Taxa de óbitos fetais, triênio 2020–2022 (óbitos fetais / nascimentos totais do triênio)</t>
+    <t xml:space="preserve">Taxa de óbitos fetais, triênio 2020–2022 (óbitos fetais / nascimentos totais do triênio) por 10000 nascimentos</t>
   </si>
   <si>
     <t xml:space="preserve">TX_resp_17_19</t>
   </si>
   <si>
-    <t xml:space="preserve">Taxa de mortalidade por doenças do aparelho respiratório (CID-10 J00–J99), triênio 2017–2019</t>
+    <t xml:space="preserve">Taxa de mortalidade por doenças do aparelho respiratório (CID-10 J00–J99), triênio 2017–2019 por 10000 mortos</t>
   </si>
   <si>
     <t xml:space="preserve">TX_resp_20_22</t>
   </si>
   <si>
-    <t xml:space="preserve">Taxa de mortalidade por doenças do aparelho respiratório (CID-10 J00–J99), triênio 2020–2022</t>
+    <t xml:space="preserve">Taxa de mortalidade por doenças do aparelho respiratório (CID-10 J00–J99), triênio 2020–2022 por 10000 mortos</t>
   </si>
   <si>
     <t xml:space="preserve">TX_var_resp</t>
@@ -227,13 +209,13 @@
     <t xml:space="preserve">TX_cmd_17_19</t>
   </si>
   <si>
-    <t xml:space="preserve">Taxa de mortalidade por Causas Mal Definidas (CMD, CID-10 R00–R99), triênio 2017–2019</t>
+    <t xml:space="preserve">Taxa de mortalidade por Causas Mal Definidas (CMD, CID-10 R00–R99), triênio 2017–2019 por 10000 mortos</t>
   </si>
   <si>
     <t xml:space="preserve">TX_cmd_20_22</t>
   </si>
   <si>
-    <t xml:space="preserve">Taxa de mortalidade por Causas Mal Definidas (CMD, CID-10 R00–R99), triênio 2020–2022</t>
+    <t xml:space="preserve">Taxa de mortalidade por Causas Mal Definidas (CMD, CID-10 R00–R99), triênio 2020–2022 por 10000 mortos</t>
   </si>
   <si>
     <t xml:space="preserve">IND_impacto_mort_60_mais</t>
@@ -267,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -289,12 +271,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -371,15 +347,15 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="82.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="82.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.47"/>
   </cols>
@@ -602,11 +578,11 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="40.3359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="40.3828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -631,7 +607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -654,7 +630,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -700,7 +676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
@@ -723,7 +699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>53</v>
       </c>
@@ -815,7 +791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
@@ -838,7 +814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
